--- a/SU - Suspension/Cost/cost_SU_A0400.xlsx
+++ b/SU - Suspension/Cost/cost_SU_A0400.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien Lazure\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphaël\Desktop\ECL\2A\EPSA\Cost_Report_Vulcanix\Cost_SU\Cost_Julien\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC1BD96-377A-4AB1-9549-12DEB5F7F63C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33660" windowHeight="19470" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SU_A0400" sheetId="2" r:id="rId1"/>
@@ -152,7 +153,7 @@
     <definedName name="zefdv">#REF!</definedName>
     <definedName name="zer">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -586,7 +587,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="14">
     <numFmt numFmtId="164" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -712,7 +713,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -973,6 +974,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -989,7 +1012,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
@@ -1144,17 +1167,22 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Cost_Yellow" xfId="4"/>
+    <cellStyle name="Cost_Yellow" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
-    <cellStyle name="Monétaire 10 2" xfId="6"/>
+    <cellStyle name="Monétaire 10 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle name="Normal_Sheet1" xfId="8"/>
-    <cellStyle name="TableStyleLight1" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1173,20 +1201,191 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>80873</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>21206</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>318998</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>431321</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>72127</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>80595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12177623" y="4286250"/>
+          <a:ext cx="2990939" cy="3985845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116818</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152760</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>303271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6640544" y="2363278"/>
+          <a:ext cx="3315777" cy="2486833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>143775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>224646</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8464671" y="2320776"/>
+          <a:ext cx="3136060" cy="2352045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>125802</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>627685</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>134787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8578BB-0831-46B3-A339-F4994947C84E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1205,8 +1404,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13101368" y="4334414"/>
-          <a:ext cx="5139906" cy="6853208"/>
+          <a:off x="125802" y="296533"/>
+          <a:ext cx="8310586" cy="5876745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1218,105 +1417,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>188704</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>242618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>3236</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>13659</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6712430" y="2884458"/>
-          <a:ext cx="4523117" cy="3392338"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>98845</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>92284</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>566108</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76558</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9183538" y="2734124"/>
-          <a:ext cx="2758655" cy="2068991"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1330,6 +1431,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1362,7 +1468,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1376,6 +1482,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1408,7 +1519,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1422,6 +1533,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Image 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1716,15 +1832,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,13 +3362,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" location="BR_01001" display="BR_01001"/>
-    <hyperlink ref="B11:B13" location="BR_01001" display="BR_01001"/>
-    <hyperlink ref="B14" location="SU_04005!B5" display="SU_04005!B5"/>
-    <hyperlink ref="B15" location="SU_04006!B5" display="SU_04006!B5"/>
-    <hyperlink ref="B11" location="SU_04002!B5" display="SU_04002!B5"/>
-    <hyperlink ref="B12" location="SU_04003!B5" display="SU_04003!B5"/>
-    <hyperlink ref="B13" location="SU_04004!B5" display="SU_04004!B5"/>
+    <hyperlink ref="B10" location="BR_01001" display="BR_01001" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B11:B13" location="BR_01001" display="BR_01001" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B14" location="SU_04005!B5" display="SU_04005!B5" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B15" location="SU_04006!B5" display="SU_04006!B5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B11" location="SU_04002!B5" display="SU_04002!B5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B12" location="SU_04003!B5" display="SU_04003!B5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B13" location="SU_04004!B5" display="SU_04004!B5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3267,7 +3383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3293,7 +3409,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="SU_04005!B5" display="SU_03005"/>
+    <hyperlink ref="B1" location="SU_04005!B5" display="SU_03005" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3301,7 +3417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3325,7 +3441,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="SU_04006!B5" display="SU_03006"/>
+    <hyperlink ref="B1" location="SU_04006!B5" display="SU_03006" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3333,15 +3449,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A12" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3976,8 +4092,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
-    <hyperlink ref="E3" location="'SU Drawing Part 1'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E3" location="'SU Drawing Part 1'!A1" display="Drawing" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3994,13 +4110,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
@@ -4654,8 +4770,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
-    <hyperlink ref="E3" location="'SU Drawing Part 2'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" location="'SU Drawing Part 2'!A1" display="Drawing" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4663,7 +4779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
   </sheetPr>
@@ -5129,21 +5245,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5261,10 +5377,10 @@
       <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="114" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="7"/>
@@ -5423,7 +5539,7 @@
       <c r="C11" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="107">
+      <c r="D11" s="112">
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="E11" s="105">
@@ -5602,14 +5718,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
   </sheetPr>
@@ -6240,15 +6356,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
-    <hyperlink ref="E3" location="'SU Drawing Part 5'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="E3" location="'SU Drawing Part 5'!A1" display="Drawing" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
   </sheetPr>
@@ -6816,23 +6932,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001"/>
-    <hyperlink ref="E3" location="'SU Drawing Part 6'!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="BR_A0001" display="BR_A0001" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E3" location="'SU Drawing Part 6'!A1" display="Drawing" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A22" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6852,15 +6968,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="SU_04001!B5" display="SU_04001!B5"/>
+    <hyperlink ref="B1" location="SU_04001!B5" display="SU_04001!B5" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -6899,7 +7016,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="SU_04002!B5" display="SU_04002"/>
+    <hyperlink ref="B1" location="SU_04002!B5" display="SU_04002" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
